--- a/_DET_project/Gantt_Diagram.xlsx
+++ b/_DET_project/Gantt_Diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\DET_Hauptprojekt\_DET_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B038A0A-6282-4D9C-8F05-D05B94A73545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB0B791-0A99-4912-A9D0-B7DE892CEB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{14B0F457-B45E-436C-B522-B2105021F47F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>KW</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>Zw.-Präsi</t>
+  </si>
+  <si>
+    <t>Final Product</t>
+  </si>
+  <si>
+    <t>Fixes</t>
+  </si>
+  <si>
+    <t>Level building</t>
+  </si>
+  <si>
+    <t>Character modeling</t>
+  </si>
+  <si>
+    <t>Game UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game logic </t>
   </si>
 </sst>
 </file>
@@ -92,7 +110,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +159,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -243,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,70 +287,109 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -323,6 +398,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF0B9AC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -631,24 +711,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6629BA57-E607-4820-AF12-04881108FB7A}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.9140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="12.33203125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="9.4140625" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="10.6640625" style="10"/>
+    <col min="1" max="1" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.4140625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -669,7 +749,7 @@
       <c r="G1" s="1">
         <v>50</v>
       </c>
-      <c r="H1" s="23">
+      <c r="H1" s="9">
         <v>51</v>
       </c>
       <c r="I1" s="1">
@@ -692,7 +772,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2">
         <v>44508</v>
       </c>
@@ -711,7 +791,7 @@
       <c r="G2" s="2">
         <v>44543</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="37">
         <v>44550</v>
       </c>
       <c r="I2" s="2">
@@ -734,318 +814,484 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="6" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="6"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="6"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="25"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="25"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="23"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="14" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="14" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="14" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="25">
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="N3:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="N3:N10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/_DET_project/Gantt_Diagram.xlsx
+++ b/_DET_project/Gantt_Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\DET_Hauptprojekt\_DET_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB0B791-0A99-4912-A9D0-B7DE892CEB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9E4ED2-69B2-4473-9583-300458AA8C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{14B0F457-B45E-436C-B522-B2105021F47F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>KW</t>
   </si>
@@ -91,13 +91,34 @@
   </si>
   <si>
     <t xml:space="preserve">Game logic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noch offen </t>
+  </si>
+  <si>
+    <t>Planung updaten</t>
+  </si>
+  <si>
+    <t>Alle/nicht festgelegt</t>
+  </si>
+  <si>
+    <t>Team Fokus</t>
+  </si>
+  <si>
+    <t>Presentation, GUI,</t>
+  </si>
+  <si>
+    <t>Levlebuilding</t>
+  </si>
+  <si>
+    <t>Game logic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +130,15 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +205,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -279,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,12 +354,60 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,67 +423,49 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,21 +790,28 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.9140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="12.33203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.4140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="6.9140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.08203125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -740,7 +823,7 @@
       <c r="D1" s="1">
         <v>47</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="36">
         <v>48</v>
       </c>
       <c r="F1" s="1">
@@ -772,7 +855,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="2">
         <v>44508</v>
       </c>
@@ -782,7 +865,7 @@
       <c r="D2" s="2">
         <v>44522</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="37">
         <v>44529</v>
       </c>
       <c r="F2" s="2">
@@ -791,7 +874,7 @@
       <c r="G2" s="2">
         <v>44543</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="13">
         <v>44550</v>
       </c>
       <c r="I2" s="2">
@@ -814,11 +897,11 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -829,15 +912,15 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -847,10 +930,10 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -861,16 +944,16 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="10"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -881,27 +964,27 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -911,16 +994,16 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="27"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -931,15 +1014,15 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="3"/>
@@ -947,11 +1030,11 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -961,16 +1044,16 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="10"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -981,15 +1064,15 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="10"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="3"/>
@@ -997,10 +1080,10 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="10"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1011,25 +1094,25 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="11"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
@@ -1040,7 +1123,9 @@
         <v>8</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="9" t="s">
@@ -1049,16 +1134,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
+      <c r="A17" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1067,19 +1154,23 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
+      <c r="A18" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1092,12 +1183,14 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
+      <c r="A19" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1112,16 +1205,16 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1130,16 +1223,18 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
+      <c r="A21" s="46" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="18"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1148,7 +1243,9 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
+      <c r="A22" s="45" t="s">
+        <v>7</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
         <v>7</v>
@@ -1166,18 +1263,20 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
+      <c r="A23" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="34" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1189,11 +1288,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1266,16 +1367,8 @@
       <c r="N28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E20:H20"/>
+  <mergeCells count="26">
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A3:A5"/>
@@ -1292,6 +1385,15 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
